--- a/Code/Results/Cases/Case_0_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9852526698024149</v>
+        <v>1.051757249440491</v>
       </c>
       <c r="D2">
-        <v>1.000168016758171</v>
+        <v>1.061732250817522</v>
       </c>
       <c r="E2">
-        <v>1.000661745854557</v>
+        <v>1.058865471869162</v>
       </c>
       <c r="F2">
-        <v>1.006575803006435</v>
+        <v>1.070310756288933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>1.007883599384244</v>
+        <v>1.056783439289323</v>
       </c>
       <c r="K2">
-        <v>1.011625011336568</v>
+        <v>1.064455512831643</v>
       </c>
       <c r="L2">
-        <v>1.012111869198725</v>
+        <v>1.061596538619531</v>
       </c>
       <c r="M2">
-        <v>1.017944280369232</v>
+        <v>1.073010933640486</v>
       </c>
       <c r="N2">
-        <v>1.009314909701235</v>
+        <v>1.058284192987868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9930992057712373</v>
+        <v>1.053346629947035</v>
       </c>
       <c r="D3">
-        <v>1.007432280505514</v>
+        <v>1.06326392973464</v>
       </c>
       <c r="E3">
-        <v>1.007528140182966</v>
+        <v>1.060309036370354</v>
       </c>
       <c r="F3">
-        <v>1.014088740624993</v>
+        <v>1.071903066491194</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>1.013779777686927</v>
+        <v>1.058019915742132</v>
       </c>
       <c r="K3">
-        <v>1.017970939026157</v>
+        <v>1.065800065445098</v>
       </c>
       <c r="L3">
-        <v>1.01806559477309</v>
+        <v>1.062852626451615</v>
       </c>
       <c r="M3">
-        <v>1.02454447202476</v>
+        <v>1.074417661830046</v>
       </c>
       <c r="N3">
-        <v>1.015219461253408</v>
+        <v>1.059522425379066</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9980250311223243</v>
+        <v>1.05437422483451</v>
       </c>
       <c r="D4">
-        <v>1.011999630768216</v>
+        <v>1.064254536129161</v>
       </c>
       <c r="E4">
-        <v>1.011845396432286</v>
+        <v>1.061242541667407</v>
       </c>
       <c r="F4">
-        <v>1.018813585191224</v>
+        <v>1.072933029893937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.017479392083412</v>
+        <v>1.058818792020995</v>
       </c>
       <c r="K4">
-        <v>1.02195535635903</v>
+        <v>1.06666908702309</v>
       </c>
       <c r="L4">
-        <v>1.021802929601575</v>
+        <v>1.063664303075816</v>
       </c>
       <c r="M4">
-        <v>1.028690128053716</v>
+        <v>1.075327047972722</v>
       </c>
       <c r="N4">
-        <v>1.018924329526688</v>
+        <v>1.060322436153878</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000061779479266</v>
+        <v>1.054806032897938</v>
       </c>
       <c r="D5">
-        <v>1.01388975968497</v>
+        <v>1.06467087651156</v>
       </c>
       <c r="E5">
-        <v>1.013632020885574</v>
+        <v>1.061634855790218</v>
       </c>
       <c r="F5">
-        <v>1.020769166528018</v>
+        <v>1.073365946019978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.019008606525778</v>
+        <v>1.059154356991065</v>
       </c>
       <c r="K5">
-        <v>1.023602917956519</v>
+        <v>1.067034192431198</v>
       </c>
       <c r="L5">
-        <v>1.023348111032132</v>
+        <v>1.064005275694892</v>
       </c>
       <c r="M5">
-        <v>1.030404742617638</v>
+        <v>1.075709154653179</v>
       </c>
       <c r="N5">
-        <v>1.020455715628965</v>
+        <v>1.060658477664695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00040182048783</v>
+        <v>1.054878524308068</v>
       </c>
       <c r="D6">
-        <v>1.014205414027045</v>
+        <v>1.064740775623078</v>
       </c>
       <c r="E6">
-        <v>1.013930388816337</v>
+        <v>1.061700719541604</v>
       </c>
       <c r="F6">
-        <v>1.021095767786348</v>
+        <v>1.073438630041589</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.019263880854639</v>
+        <v>1.059210683434686</v>
       </c>
       <c r="K6">
-        <v>1.023877984991544</v>
+        <v>1.06709548186769</v>
       </c>
       <c r="L6">
-        <v>1.02360607253006</v>
+        <v>1.0640625116519</v>
       </c>
       <c r="M6">
-        <v>1.030691026746843</v>
+        <v>1.075773300561373</v>
       </c>
       <c r="N6">
-        <v>1.020711352476654</v>
+        <v>1.060714884098327</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9980523773817065</v>
+        <v>1.054379995422263</v>
       </c>
       <c r="D7">
-        <v>1.012025002215983</v>
+        <v>1.064260099715058</v>
       </c>
       <c r="E7">
-        <v>1.011869378581041</v>
+        <v>1.061247784296302</v>
       </c>
       <c r="F7">
-        <v>1.018839834122099</v>
+        <v>1.072938814847315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.017499926111379</v>
+        <v>1.058823276959313</v>
       </c>
       <c r="K7">
-        <v>1.021977477054902</v>
+        <v>1.066673966479887</v>
       </c>
       <c r="L7">
-        <v>1.021823676559434</v>
+        <v>1.06366886016781</v>
       </c>
       <c r="M7">
-        <v>1.028713147520527</v>
+        <v>1.075332154475309</v>
       </c>
       <c r="N7">
-        <v>1.018944892715331</v>
+        <v>1.060326927461322</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.987937168203651</v>
+        <v>1.052294567142697</v>
       </c>
       <c r="D8">
-        <v>1.002651757843553</v>
+        <v>1.062249995217486</v>
       </c>
       <c r="E8">
-        <v>1.003009423037344</v>
+        <v>1.0593534548851</v>
       </c>
       <c r="F8">
-        <v>1.009144328869641</v>
+        <v>1.07084896568446</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>1.009901169628089</v>
+        <v>1.057201565920324</v>
       </c>
       <c r="K8">
-        <v>1.013795928798914</v>
+        <v>1.064910120493698</v>
       </c>
       <c r="L8">
-        <v>1.014148783506234</v>
+        <v>1.062021270095994</v>
       </c>
       <c r="M8">
-        <v>1.02020184286811</v>
+        <v>1.073486526459869</v>
       </c>
       <c r="N8">
-        <v>1.011335345126244</v>
+        <v>1.058702913406646</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9688438989111079</v>
+        <v>1.048612961053824</v>
       </c>
       <c r="D9">
-        <v>0.9850210964880882</v>
+        <v>1.058703836005057</v>
       </c>
       <c r="E9">
-        <v>0.9863458979223813</v>
+        <v>1.056010679151949</v>
       </c>
       <c r="F9">
-        <v>0.9909166884457693</v>
+        <v>1.067163228654945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9955469522032638</v>
+        <v>1.054334381240272</v>
       </c>
       <c r="K9">
-        <v>0.9983619626616349</v>
+        <v>1.061794087246479</v>
       </c>
       <c r="L9">
-        <v>0.99966445735049</v>
+        <v>1.059109332154391</v>
       </c>
       <c r="M9">
-        <v>1.004158875441658</v>
+        <v>1.070227390372366</v>
       </c>
       <c r="N9">
-        <v>0.9969607430662238</v>
+        <v>1.055831656995477</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9550876680692223</v>
+        <v>1.046153446737528</v>
       </c>
       <c r="D10">
-        <v>0.9723686287532732</v>
+        <v>1.056336514650688</v>
       </c>
       <c r="E10">
-        <v>0.9743904590633283</v>
+        <v>1.053778560551304</v>
       </c>
       <c r="F10">
-        <v>0.9778419514743996</v>
+        <v>1.064703473515629</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9852039242497078</v>
+        <v>1.052416128232756</v>
       </c>
       <c r="K10">
-        <v>0.9872553648217924</v>
+        <v>1.059710992844307</v>
       </c>
       <c r="L10">
-        <v>0.9892380262194659</v>
+        <v>1.057161818270381</v>
       </c>
       <c r="M10">
-        <v>0.992623142712008</v>
+        <v>1.068049558024812</v>
       </c>
       <c r="N10">
-        <v>0.9866030268266121</v>
+        <v>1.053910679848663</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9488409027416934</v>
+        <v>1.045087120018198</v>
       </c>
       <c r="D11">
-        <v>0.9666369650020101</v>
+        <v>1.055310573094481</v>
       </c>
       <c r="E11">
-        <v>0.9689757438266696</v>
+        <v>1.052811079498881</v>
       </c>
       <c r="F11">
-        <v>0.9719204287806299</v>
+        <v>1.063637650253416</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9805084873966753</v>
+        <v>1.051583803408769</v>
       </c>
       <c r="K11">
-        <v>0.9822167324215701</v>
+        <v>1.058807535004636</v>
       </c>
       <c r="L11">
-        <v>0.9845074475056055</v>
+        <v>1.056316960302155</v>
       </c>
       <c r="M11">
-        <v>0.987392050354916</v>
+        <v>1.067105232086856</v>
       </c>
       <c r="N11">
-        <v>0.981900921914674</v>
+        <v>1.053077173027958</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9464723089618305</v>
+        <v>1.04469082716552</v>
       </c>
       <c r="D12">
-        <v>0.9644659636324148</v>
+        <v>1.05492935224563</v>
       </c>
       <c r="E12">
-        <v>0.9669250201002889</v>
+        <v>1.052451561657781</v>
       </c>
       <c r="F12">
-        <v>0.9696777263722828</v>
+        <v>1.06324163671049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9787284821923439</v>
+        <v>1.051274376567358</v>
       </c>
       <c r="K12">
-        <v>0.9803071428831265</v>
+        <v>1.058471722419086</v>
       </c>
       <c r="L12">
-        <v>0.9827145548534312</v>
+        <v>1.056002898748741</v>
       </c>
       <c r="M12">
-        <v>0.9854098599289352</v>
+        <v>1.066754262157248</v>
       </c>
       <c r="N12">
-        <v>0.980118388898783</v>
+        <v>1.05276730676494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9469826469977092</v>
+        <v>1.044775843068781</v>
       </c>
       <c r="D13">
-        <v>0.9649336220334921</v>
+        <v>1.055011131912082</v>
       </c>
       <c r="E13">
-        <v>0.9673667583060482</v>
+        <v>1.052528686479753</v>
       </c>
       <c r="F13">
-        <v>0.9701608204518933</v>
+        <v>1.063326588507862</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9791119832354058</v>
+        <v>1.051340761760534</v>
       </c>
       <c r="K13">
-        <v>0.9807185393712612</v>
+        <v>1.058543765812633</v>
       </c>
       <c r="L13">
-        <v>0.983100812431438</v>
+        <v>1.056070277167501</v>
       </c>
       <c r="M13">
-        <v>0.9858368819282896</v>
+        <v>1.066829555821012</v>
       </c>
       <c r="N13">
-        <v>0.9805024345573148</v>
+        <v>1.052833786232705</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9486461281028561</v>
+        <v>1.045054366703779</v>
       </c>
       <c r="D14">
-        <v>0.9664583913870393</v>
+        <v>1.055279064177523</v>
       </c>
       <c r="E14">
-        <v>0.9688070586577887</v>
+        <v>1.052781364796673</v>
       </c>
       <c r="F14">
-        <v>0.9717359531755585</v>
+        <v>1.063604918138076</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9803621051885871</v>
+        <v>1.051558231526436</v>
       </c>
       <c r="K14">
-        <v>0.9820596830744562</v>
+        <v>1.058779781332342</v>
       </c>
       <c r="L14">
-        <v>0.9843599965053954</v>
+        <v>1.056291004891293</v>
       </c>
       <c r="M14">
-        <v>0.9872290232165997</v>
+        <v>1.067076225038378</v>
       </c>
       <c r="N14">
-        <v>0.98175433182706</v>
+        <v>1.053051564830619</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9496645066715358</v>
+        <v>1.045225945958518</v>
       </c>
       <c r="D15">
-        <v>0.9673921568000864</v>
+        <v>1.055444127207645</v>
       </c>
       <c r="E15">
-        <v>0.9696891266442539</v>
+        <v>1.052937027818698</v>
       </c>
       <c r="F15">
-        <v>0.9727005888415484</v>
+        <v>1.063776390121102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9811274801096652</v>
+        <v>1.051692186569136</v>
       </c>
       <c r="K15">
-        <v>0.9828808533335361</v>
+        <v>1.058925167811431</v>
       </c>
       <c r="L15">
-        <v>0.9851309775311347</v>
+        <v>1.056426970008624</v>
       </c>
       <c r="M15">
-        <v>0.9880814636170541</v>
+        <v>1.06722817863725</v>
       </c>
       <c r="N15">
-        <v>0.9825207936683157</v>
+        <v>1.053185710104844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.955495747744551</v>
+        <v>1.046224186212693</v>
       </c>
       <c r="D16">
-        <v>0.9727433612221901</v>
+        <v>1.056404583803001</v>
       </c>
       <c r="E16">
-        <v>0.9747444980769631</v>
+        <v>1.053842748177147</v>
       </c>
       <c r="F16">
-        <v>0.9782291261994666</v>
+        <v>1.064774192467354</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9855107026022731</v>
+        <v>1.052471330240455</v>
       </c>
       <c r="K16">
-        <v>0.9875846372535628</v>
+        <v>1.059770920823153</v>
       </c>
       <c r="L16">
-        <v>0.9895471588969343</v>
+        <v>1.057217854954323</v>
       </c>
       <c r="M16">
-        <v>0.9929650387017642</v>
+        <v>1.068112201508568</v>
       </c>
       <c r="N16">
-        <v>0.9869102408396256</v>
+        <v>1.053965960249545</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9590727431033826</v>
+        <v>1.046849989808693</v>
       </c>
       <c r="D17">
-        <v>0.976029637578012</v>
+        <v>1.057006812114231</v>
       </c>
       <c r="E17">
-        <v>0.9778494390060135</v>
+        <v>1.054410620095456</v>
       </c>
       <c r="F17">
-        <v>0.9816246781112621</v>
+        <v>1.065399884786179</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9881999204159059</v>
+        <v>1.052959603656944</v>
       </c>
       <c r="K17">
-        <v>0.9904714260104934</v>
+        <v>1.060301041604037</v>
       </c>
       <c r="L17">
-        <v>0.992257323916137</v>
+        <v>1.057713530093707</v>
       </c>
       <c r="M17">
-        <v>0.995962751332223</v>
+        <v>1.068666369025145</v>
       </c>
       <c r="N17">
-        <v>0.9896032776510119</v>
+        <v>1.054454927070292</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9611314898244622</v>
+        <v>1.047214881783904</v>
       </c>
       <c r="D18">
-        <v>0.9779223476423999</v>
+        <v>1.057357997803006</v>
       </c>
       <c r="E18">
-        <v>0.9796378183739091</v>
+        <v>1.054741758210292</v>
       </c>
       <c r="F18">
-        <v>0.9835804593974968</v>
+        <v>1.065764770425395</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9897478227289379</v>
+        <v>1.053244240942755</v>
       </c>
       <c r="K18">
-        <v>0.9921333720887308</v>
+        <v>1.06061011136363</v>
       </c>
       <c r="L18">
-        <v>0.9938175366542576</v>
+        <v>1.05800249789374</v>
       </c>
       <c r="M18">
-        <v>0.997688765150663</v>
+        <v>1.068989479720653</v>
       </c>
       <c r="N18">
-        <v>0.991153378162875</v>
+        <v>1.054739968573697</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9618289094745786</v>
+        <v>1.047339278999492</v>
       </c>
       <c r="D19">
-        <v>0.9785637338025542</v>
+        <v>1.057477729085189</v>
       </c>
       <c r="E19">
-        <v>0.9802438668648201</v>
+        <v>1.054854652398585</v>
       </c>
       <c r="F19">
-        <v>0.9842432415371185</v>
+        <v>1.065889175384912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9902722045748977</v>
+        <v>1.053341267257324</v>
       </c>
       <c r="K19">
-        <v>0.99269644318781</v>
+        <v>1.060715472540577</v>
       </c>
       <c r="L19">
-        <v>0.9943461311549109</v>
+        <v>1.058101003040974</v>
       </c>
       <c r="M19">
-        <v>0.9982735776805707</v>
+        <v>1.069099631025886</v>
       </c>
       <c r="N19">
-        <v>0.9916785046912034</v>
+        <v>1.054837132676761</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9586918573053551</v>
+        <v>1.04678286038866</v>
       </c>
       <c r="D20">
-        <v>0.9756795730040612</v>
+        <v>1.056942207458154</v>
       </c>
       <c r="E20">
-        <v>0.977518679285013</v>
+        <v>1.054349702385182</v>
       </c>
       <c r="F20">
-        <v>0.9812629591809722</v>
+        <v>1.065332761239748</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9879135536723523</v>
+        <v>1.052907233593889</v>
       </c>
       <c r="K20">
-        <v>0.9901639869656185</v>
+        <v>1.060244179275873</v>
       </c>
       <c r="L20">
-        <v>0.9919687000618708</v>
+        <v>1.057660364528482</v>
       </c>
       <c r="M20">
-        <v>0.9956434773841198</v>
+        <v>1.068606925172391</v>
       </c>
       <c r="N20">
-        <v>0.9893165042338355</v>
+        <v>1.05440248263574</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9481576477015905</v>
+        <v>1.044972354359534</v>
       </c>
       <c r="D21">
-        <v>0.9660105793209268</v>
+        <v>1.05520016875294</v>
       </c>
       <c r="E21">
-        <v>0.968384047819575</v>
+        <v>1.052706961600793</v>
       </c>
       <c r="F21">
-        <v>0.9712733439952341</v>
+        <v>1.06352296036734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9799949959539797</v>
+        <v>1.051494199459455</v>
       </c>
       <c r="K21">
-        <v>0.9816658302585022</v>
+        <v>1.058710287007089</v>
       </c>
       <c r="L21">
-        <v>0.9839902139452914</v>
+        <v>1.056226012866137</v>
       </c>
       <c r="M21">
-        <v>0.9868201846028029</v>
+        <v>1.067003592834982</v>
       </c>
       <c r="N21">
-        <v>0.9813867012552314</v>
+        <v>1.052987441830759</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9412522709367716</v>
+        <v>1.043832787831138</v>
       </c>
       <c r="D22">
-        <v>0.9596858417700613</v>
+        <v>1.054104062682096</v>
       </c>
       <c r="E22">
-        <v>0.9624102012728937</v>
+        <v>1.051673219985603</v>
       </c>
       <c r="F22">
-        <v>0.9647401216694941</v>
+        <v>1.062384371735761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9748064895175026</v>
+        <v>1.050604235588034</v>
       </c>
       <c r="K22">
-        <v>0.9761005883766803</v>
+        <v>1.057744544170503</v>
       </c>
       <c r="L22">
-        <v>0.9787650005376872</v>
+        <v>1.055322765362694</v>
       </c>
       <c r="M22">
-        <v>0.9810440096201622</v>
+        <v>1.065994322560932</v>
       </c>
       <c r="N22">
-        <v>0.9761908265444844</v>
+        <v>1.052096214108559</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9449414275402809</v>
+        <v>1.044437013574077</v>
       </c>
       <c r="D23">
-        <v>0.9630634608558382</v>
+        <v>1.054685209695664</v>
       </c>
       <c r="E23">
-        <v>0.9656002888459513</v>
+        <v>1.05222131265032</v>
       </c>
       <c r="F23">
-        <v>0.9682289630738473</v>
+        <v>1.062988028074642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9775781466269178</v>
+        <v>1.051076170171822</v>
       </c>
       <c r="K23">
-        <v>0.979073209306858</v>
+        <v>1.058256630939724</v>
       </c>
       <c r="L23">
-        <v>0.9815560167747447</v>
+        <v>1.055801730495723</v>
       </c>
       <c r="M23">
-        <v>0.984129109779759</v>
+        <v>1.066529471595368</v>
       </c>
       <c r="N23">
-        <v>0.9789664197249087</v>
+        <v>1.052568818893588</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9588640483173307</v>
+        <v>1.046813193681789</v>
       </c>
       <c r="D24">
-        <v>0.9758378263580605</v>
+        <v>1.056971399780816</v>
       </c>
       <c r="E24">
-        <v>0.9776682051797796</v>
+        <v>1.054377228760683</v>
       </c>
       <c r="F24">
-        <v>0.9814264806900467</v>
+        <v>1.065363091697928</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9880430141164122</v>
+        <v>1.052930897879111</v>
       </c>
       <c r="K24">
-        <v>0.9903029727555452</v>
+        <v>1.06026987334938</v>
       </c>
       <c r="L24">
-        <v>0.9920991801134276</v>
+        <v>1.057684388226073</v>
       </c>
       <c r="M24">
-        <v>0.9957878128028472</v>
+        <v>1.068633785679766</v>
       </c>
       <c r="N24">
-        <v>0.9894461485265754</v>
+        <v>1.054426180526962</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9739469606458563</v>
+        <v>1.049565606285848</v>
       </c>
       <c r="D25">
-        <v>0.9897253463085197</v>
+        <v>1.059621135994138</v>
       </c>
       <c r="E25">
-        <v>0.9907917304032963</v>
+        <v>1.056875470313182</v>
       </c>
       <c r="F25">
-        <v>0.9957791715495979</v>
+        <v>1.068116502766108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9993840893949212</v>
+        <v>1.055076786112191</v>
       </c>
       <c r="K25">
-        <v>1.0024852849374</v>
+        <v>1.062600637123988</v>
       </c>
       <c r="L25">
-        <v>1.003534694836608</v>
+        <v>1.059863205819264</v>
       </c>
       <c r="M25">
-        <v>1.008443365731412</v>
+        <v>1.071070817747026</v>
       </c>
       <c r="N25">
-        <v>1.000803329432819</v>
+        <v>1.056575116167469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051757249440491</v>
+        <v>0.9852526698024155</v>
       </c>
       <c r="D2">
-        <v>1.061732250817522</v>
+        <v>1.000168016758172</v>
       </c>
       <c r="E2">
-        <v>1.058865471869162</v>
+        <v>1.000661745854557</v>
       </c>
       <c r="F2">
-        <v>1.070310756288933</v>
+        <v>1.006575803006436</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.056783439289323</v>
+        <v>1.007883599384245</v>
       </c>
       <c r="K2">
-        <v>1.064455512831643</v>
+        <v>1.011625011336569</v>
       </c>
       <c r="L2">
-        <v>1.061596538619531</v>
+        <v>1.012111869198725</v>
       </c>
       <c r="M2">
-        <v>1.073010933640486</v>
+        <v>1.017944280369233</v>
       </c>
       <c r="N2">
-        <v>1.058284192987868</v>
+        <v>1.009314909701235</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053346629947035</v>
+        <v>0.9930992057712387</v>
       </c>
       <c r="D3">
-        <v>1.06326392973464</v>
+        <v>1.007432280505516</v>
       </c>
       <c r="E3">
-        <v>1.060309036370354</v>
+        <v>1.007528140182967</v>
       </c>
       <c r="F3">
-        <v>1.071903066491194</v>
+        <v>1.014088740624995</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.058019915742132</v>
+        <v>1.013779777686928</v>
       </c>
       <c r="K3">
-        <v>1.065800065445098</v>
+        <v>1.017970939026159</v>
       </c>
       <c r="L3">
-        <v>1.062852626451615</v>
+        <v>1.018065594773091</v>
       </c>
       <c r="M3">
-        <v>1.074417661830046</v>
+        <v>1.024544472024762</v>
       </c>
       <c r="N3">
-        <v>1.059522425379066</v>
+        <v>1.015219461253409</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05437422483451</v>
+        <v>0.9980250311223241</v>
       </c>
       <c r="D4">
-        <v>1.064254536129161</v>
+        <v>1.011999630768216</v>
       </c>
       <c r="E4">
-        <v>1.061242541667407</v>
+        <v>1.011845396432286</v>
       </c>
       <c r="F4">
-        <v>1.072933029893937</v>
+        <v>1.018813585191223</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.058818792020995</v>
+        <v>1.017479392083411</v>
       </c>
       <c r="K4">
-        <v>1.06666908702309</v>
+        <v>1.02195535635903</v>
       </c>
       <c r="L4">
-        <v>1.063664303075816</v>
+        <v>1.021802929601574</v>
       </c>
       <c r="M4">
-        <v>1.075327047972722</v>
+        <v>1.028690128053716</v>
       </c>
       <c r="N4">
-        <v>1.060322436153878</v>
+        <v>1.018924329526687</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054806032897938</v>
+        <v>1.000061779479267</v>
       </c>
       <c r="D5">
-        <v>1.06467087651156</v>
+        <v>1.013889759684971</v>
       </c>
       <c r="E5">
-        <v>1.061634855790218</v>
+        <v>1.013632020885575</v>
       </c>
       <c r="F5">
-        <v>1.073365946019978</v>
+        <v>1.020769166528019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.059154356991065</v>
+        <v>1.019008606525779</v>
       </c>
       <c r="K5">
-        <v>1.067034192431198</v>
+        <v>1.02360291795652</v>
       </c>
       <c r="L5">
-        <v>1.064005275694892</v>
+        <v>1.023348111032133</v>
       </c>
       <c r="M5">
-        <v>1.075709154653179</v>
+        <v>1.030404742617639</v>
       </c>
       <c r="N5">
-        <v>1.060658477664695</v>
+        <v>1.020455715628966</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054878524308068</v>
+        <v>1.00040182048783</v>
       </c>
       <c r="D6">
-        <v>1.064740775623078</v>
+        <v>1.014205414027044</v>
       </c>
       <c r="E6">
-        <v>1.061700719541604</v>
+        <v>1.013930388816336</v>
       </c>
       <c r="F6">
-        <v>1.073438630041589</v>
+        <v>1.021095767786347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.059210683434686</v>
+        <v>1.019263880854638</v>
       </c>
       <c r="K6">
-        <v>1.06709548186769</v>
+        <v>1.023877984991543</v>
       </c>
       <c r="L6">
-        <v>1.0640625116519</v>
+        <v>1.023606072530058</v>
       </c>
       <c r="M6">
-        <v>1.075773300561373</v>
+        <v>1.030691026746842</v>
       </c>
       <c r="N6">
-        <v>1.060714884098327</v>
+        <v>1.020711352476653</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054379995422263</v>
+        <v>0.9980523773817045</v>
       </c>
       <c r="D7">
-        <v>1.064260099715058</v>
+        <v>1.012025002215981</v>
       </c>
       <c r="E7">
-        <v>1.061247784296302</v>
+        <v>1.011869378581038</v>
       </c>
       <c r="F7">
-        <v>1.072938814847315</v>
+        <v>1.018839834122097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.058823276959313</v>
+        <v>1.017499926111378</v>
       </c>
       <c r="K7">
-        <v>1.066673966479887</v>
+        <v>1.021977477054899</v>
       </c>
       <c r="L7">
-        <v>1.06366886016781</v>
+        <v>1.021823676559432</v>
       </c>
       <c r="M7">
-        <v>1.075332154475309</v>
+        <v>1.028713147520524</v>
       </c>
       <c r="N7">
-        <v>1.060326927461322</v>
+        <v>1.018944892715329</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052294567142697</v>
+        <v>0.9879371682036501</v>
       </c>
       <c r="D8">
-        <v>1.062249995217486</v>
+        <v>1.002651757843552</v>
       </c>
       <c r="E8">
-        <v>1.0593534548851</v>
+        <v>1.003009423037343</v>
       </c>
       <c r="F8">
-        <v>1.07084896568446</v>
+        <v>1.00914432886964</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.057201565920324</v>
+        <v>1.009901169628088</v>
       </c>
       <c r="K8">
-        <v>1.064910120493698</v>
+        <v>1.013795928798913</v>
       </c>
       <c r="L8">
-        <v>1.062021270095994</v>
+        <v>1.014148783506234</v>
       </c>
       <c r="M8">
-        <v>1.073486526459869</v>
+        <v>1.020201842868109</v>
       </c>
       <c r="N8">
-        <v>1.058702913406646</v>
+        <v>1.011335345126243</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048612961053824</v>
+        <v>0.9688438989111086</v>
       </c>
       <c r="D9">
-        <v>1.058703836005057</v>
+        <v>0.9850210964880888</v>
       </c>
       <c r="E9">
-        <v>1.056010679151949</v>
+        <v>0.9863458979223818</v>
       </c>
       <c r="F9">
-        <v>1.067163228654945</v>
+        <v>0.9909166884457701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.054334381240272</v>
+        <v>0.9955469522032644</v>
       </c>
       <c r="K9">
-        <v>1.061794087246479</v>
+        <v>0.9983619626616355</v>
       </c>
       <c r="L9">
-        <v>1.059109332154391</v>
+        <v>0.9996644573504905</v>
       </c>
       <c r="M9">
-        <v>1.070227390372366</v>
+        <v>1.004158875441659</v>
       </c>
       <c r="N9">
-        <v>1.055831656995477</v>
+        <v>0.9969607430662245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046153446737528</v>
+        <v>0.955087668069223</v>
       </c>
       <c r="D10">
-        <v>1.056336514650688</v>
+        <v>0.9723686287532736</v>
       </c>
       <c r="E10">
-        <v>1.053778560551304</v>
+        <v>0.9743904590633289</v>
       </c>
       <c r="F10">
-        <v>1.064703473515629</v>
+        <v>0.9778419514744002</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.052416128232756</v>
+        <v>0.9852039242497079</v>
       </c>
       <c r="K10">
-        <v>1.059710992844307</v>
+        <v>0.9872553648217927</v>
       </c>
       <c r="L10">
-        <v>1.057161818270381</v>
+        <v>0.9892380262194663</v>
       </c>
       <c r="M10">
-        <v>1.068049558024812</v>
+        <v>0.9926231427120087</v>
       </c>
       <c r="N10">
-        <v>1.053910679848663</v>
+        <v>0.9866030268266122</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045087120018198</v>
+        <v>0.9488409027416952</v>
       </c>
       <c r="D11">
-        <v>1.055310573094481</v>
+        <v>0.966636965002012</v>
       </c>
       <c r="E11">
-        <v>1.052811079498881</v>
+        <v>0.9689757438266715</v>
       </c>
       <c r="F11">
-        <v>1.063637650253416</v>
+        <v>0.9719204287806321</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.051583803408769</v>
+        <v>0.9805084873966771</v>
       </c>
       <c r="K11">
-        <v>1.058807535004636</v>
+        <v>0.9822167324215719</v>
       </c>
       <c r="L11">
-        <v>1.056316960302155</v>
+        <v>0.9845074475056075</v>
       </c>
       <c r="M11">
-        <v>1.067105232086856</v>
+        <v>0.9873920503549182</v>
       </c>
       <c r="N11">
-        <v>1.053077173027958</v>
+        <v>0.9819009219146762</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04469082716552</v>
+        <v>0.9464723089618311</v>
       </c>
       <c r="D12">
-        <v>1.05492935224563</v>
+        <v>0.9644659636324151</v>
       </c>
       <c r="E12">
-        <v>1.052451561657781</v>
+        <v>0.9669250201002895</v>
       </c>
       <c r="F12">
-        <v>1.06324163671049</v>
+        <v>0.9696777263722836</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.051274376567358</v>
+        <v>0.9787284821923444</v>
       </c>
       <c r="K12">
-        <v>1.058471722419086</v>
+        <v>0.980307142883127</v>
       </c>
       <c r="L12">
-        <v>1.056002898748741</v>
+        <v>0.9827145548534315</v>
       </c>
       <c r="M12">
-        <v>1.066754262157248</v>
+        <v>0.9854098599289358</v>
       </c>
       <c r="N12">
-        <v>1.05276730676494</v>
+        <v>0.9801183888987836</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044775843068781</v>
+        <v>0.9469826469977104</v>
       </c>
       <c r="D13">
-        <v>1.055011131912082</v>
+        <v>0.9649336220334932</v>
       </c>
       <c r="E13">
-        <v>1.052528686479753</v>
+        <v>0.9673667583060495</v>
       </c>
       <c r="F13">
-        <v>1.063326588507862</v>
+        <v>0.9701608204518948</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.051340761760534</v>
+        <v>0.9791119832354072</v>
       </c>
       <c r="K13">
-        <v>1.058543765812633</v>
+        <v>0.9807185393712622</v>
       </c>
       <c r="L13">
-        <v>1.056070277167501</v>
+        <v>0.9831008124314388</v>
       </c>
       <c r="M13">
-        <v>1.066829555821012</v>
+        <v>0.9858368819282909</v>
       </c>
       <c r="N13">
-        <v>1.052833786232705</v>
+        <v>0.9805024345573156</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045054366703779</v>
+        <v>0.9486461281028572</v>
       </c>
       <c r="D14">
-        <v>1.055279064177523</v>
+        <v>0.9664583913870406</v>
       </c>
       <c r="E14">
-        <v>1.052781364796673</v>
+        <v>0.9688070586577899</v>
       </c>
       <c r="F14">
-        <v>1.063604918138076</v>
+        <v>0.9717359531755599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.051558231526436</v>
+        <v>0.9803621051885884</v>
       </c>
       <c r="K14">
-        <v>1.058779781332342</v>
+        <v>0.9820596830744577</v>
       </c>
       <c r="L14">
-        <v>1.056291004891293</v>
+        <v>0.9843599965053966</v>
       </c>
       <c r="M14">
-        <v>1.067076225038378</v>
+        <v>0.9872290232166011</v>
       </c>
       <c r="N14">
-        <v>1.053051564830619</v>
+        <v>0.9817543318270614</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045225945958518</v>
+        <v>0.9496645066715353</v>
       </c>
       <c r="D15">
-        <v>1.055444127207645</v>
+        <v>0.9673921568000862</v>
       </c>
       <c r="E15">
-        <v>1.052937027818698</v>
+        <v>0.9696891266442538</v>
       </c>
       <c r="F15">
-        <v>1.063776390121102</v>
+        <v>0.9727005888415481</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.051692186569136</v>
+        <v>0.981127480109665</v>
       </c>
       <c r="K15">
-        <v>1.058925167811431</v>
+        <v>0.9828808533335359</v>
       </c>
       <c r="L15">
-        <v>1.056426970008624</v>
+        <v>0.9851309775311344</v>
       </c>
       <c r="M15">
-        <v>1.06722817863725</v>
+        <v>0.9880814636170536</v>
       </c>
       <c r="N15">
-        <v>1.053185710104844</v>
+        <v>0.9825207936683155</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046224186212693</v>
+        <v>0.9554957477445525</v>
       </c>
       <c r="D16">
-        <v>1.056404583803001</v>
+        <v>0.9727433612221917</v>
       </c>
       <c r="E16">
-        <v>1.053842748177147</v>
+        <v>0.9747444980769641</v>
       </c>
       <c r="F16">
-        <v>1.064774192467354</v>
+        <v>0.9782291261994678</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.052471330240455</v>
+        <v>0.9855107026022745</v>
       </c>
       <c r="K16">
-        <v>1.059770920823153</v>
+        <v>0.9875846372535644</v>
       </c>
       <c r="L16">
-        <v>1.057217854954323</v>
+        <v>0.9895471588969355</v>
       </c>
       <c r="M16">
-        <v>1.068112201508568</v>
+        <v>0.9929650387017654</v>
       </c>
       <c r="N16">
-        <v>1.053965960249545</v>
+        <v>0.9869102408396272</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046849989808693</v>
+        <v>0.9590727431033823</v>
       </c>
       <c r="D17">
-        <v>1.057006812114231</v>
+        <v>0.9760296375780115</v>
       </c>
       <c r="E17">
-        <v>1.054410620095456</v>
+        <v>0.9778494390060131</v>
       </c>
       <c r="F17">
-        <v>1.065399884786179</v>
+        <v>0.9816246781112616</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.052959603656944</v>
+        <v>0.9881999204159054</v>
       </c>
       <c r="K17">
-        <v>1.060301041604037</v>
+        <v>0.990471426010493</v>
       </c>
       <c r="L17">
-        <v>1.057713530093707</v>
+        <v>0.9922573239161367</v>
       </c>
       <c r="M17">
-        <v>1.068666369025145</v>
+        <v>0.9959627513322227</v>
       </c>
       <c r="N17">
-        <v>1.054454927070292</v>
+        <v>0.9896032776510112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047214881783904</v>
+        <v>0.9611314898244623</v>
       </c>
       <c r="D18">
-        <v>1.057357997803006</v>
+        <v>0.9779223476424</v>
       </c>
       <c r="E18">
-        <v>1.054741758210292</v>
+        <v>0.979637818373909</v>
       </c>
       <c r="F18">
-        <v>1.065764770425395</v>
+        <v>0.9835804593974968</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.053244240942755</v>
+        <v>0.9897478227289379</v>
       </c>
       <c r="K18">
-        <v>1.06061011136363</v>
+        <v>0.9921333720887308</v>
       </c>
       <c r="L18">
-        <v>1.05800249789374</v>
+        <v>0.9938175366542575</v>
       </c>
       <c r="M18">
-        <v>1.068989479720653</v>
+        <v>0.9976887651506628</v>
       </c>
       <c r="N18">
-        <v>1.054739968573697</v>
+        <v>0.9911533781628751</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047339278999492</v>
+        <v>0.9618289094745788</v>
       </c>
       <c r="D19">
-        <v>1.057477729085189</v>
+        <v>0.9785637338025545</v>
       </c>
       <c r="E19">
-        <v>1.054854652398585</v>
+        <v>0.9802438668648202</v>
       </c>
       <c r="F19">
-        <v>1.065889175384912</v>
+        <v>0.9842432415371187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.053341267257324</v>
+        <v>0.990272204574898</v>
       </c>
       <c r="K19">
-        <v>1.060715472540577</v>
+        <v>0.99269644318781</v>
       </c>
       <c r="L19">
-        <v>1.058101003040974</v>
+        <v>0.9943461311549109</v>
       </c>
       <c r="M19">
-        <v>1.069099631025886</v>
+        <v>0.9982735776805708</v>
       </c>
       <c r="N19">
-        <v>1.054837132676761</v>
+        <v>0.9916785046912039</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04678286038866</v>
+        <v>0.9586918573053554</v>
       </c>
       <c r="D20">
-        <v>1.056942207458154</v>
+        <v>0.9756795730040612</v>
       </c>
       <c r="E20">
-        <v>1.054349702385182</v>
+        <v>0.9775186792850131</v>
       </c>
       <c r="F20">
-        <v>1.065332761239748</v>
+        <v>0.9812629591809721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.052907233593889</v>
+        <v>0.9879135536723528</v>
       </c>
       <c r="K20">
-        <v>1.060244179275873</v>
+        <v>0.9901639869656186</v>
       </c>
       <c r="L20">
-        <v>1.057660364528482</v>
+        <v>0.9919687000618709</v>
       </c>
       <c r="M20">
-        <v>1.068606925172391</v>
+        <v>0.9956434773841196</v>
       </c>
       <c r="N20">
-        <v>1.05440248263574</v>
+        <v>0.9893165042338361</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044972354359534</v>
+        <v>0.9481576477015908</v>
       </c>
       <c r="D21">
-        <v>1.05520016875294</v>
+        <v>0.9660105793209275</v>
       </c>
       <c r="E21">
-        <v>1.052706961600793</v>
+        <v>0.9683840478195754</v>
       </c>
       <c r="F21">
-        <v>1.06352296036734</v>
+        <v>0.9712733439952349</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.051494199459455</v>
+        <v>0.9799949959539801</v>
       </c>
       <c r="K21">
-        <v>1.058710287007089</v>
+        <v>0.9816658302585027</v>
       </c>
       <c r="L21">
-        <v>1.056226012866137</v>
+        <v>0.983990213945292</v>
       </c>
       <c r="M21">
-        <v>1.067003592834982</v>
+        <v>0.9868201846028037</v>
       </c>
       <c r="N21">
-        <v>1.052987441830759</v>
+        <v>0.9813867012552319</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043832787831138</v>
+        <v>0.9412522709367711</v>
       </c>
       <c r="D22">
-        <v>1.054104062682096</v>
+        <v>0.9596858417700611</v>
       </c>
       <c r="E22">
-        <v>1.051673219985603</v>
+        <v>0.962410201272893</v>
       </c>
       <c r="F22">
-        <v>1.062384371735761</v>
+        <v>0.9647401216694936</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.050604235588034</v>
+        <v>0.9748064895175023</v>
       </c>
       <c r="K22">
-        <v>1.057744544170503</v>
+        <v>0.9761005883766802</v>
       </c>
       <c r="L22">
-        <v>1.055322765362694</v>
+        <v>0.978765000537687</v>
       </c>
       <c r="M22">
-        <v>1.065994322560932</v>
+        <v>0.9810440096201619</v>
       </c>
       <c r="N22">
-        <v>1.052096214108559</v>
+        <v>0.9761908265444842</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044437013574077</v>
+        <v>0.9449414275402798</v>
       </c>
       <c r="D23">
-        <v>1.054685209695664</v>
+        <v>0.9630634608558371</v>
       </c>
       <c r="E23">
-        <v>1.05222131265032</v>
+        <v>0.9656002888459498</v>
       </c>
       <c r="F23">
-        <v>1.062988028074642</v>
+        <v>0.968228963073846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.051076170171822</v>
+        <v>0.9775781466269167</v>
       </c>
       <c r="K23">
-        <v>1.058256630939724</v>
+        <v>0.979073209306857</v>
       </c>
       <c r="L23">
-        <v>1.055801730495723</v>
+        <v>0.9815560167747432</v>
       </c>
       <c r="M23">
-        <v>1.066529471595368</v>
+        <v>0.9841291097797576</v>
       </c>
       <c r="N23">
-        <v>1.052568818893588</v>
+        <v>0.9789664197249077</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046813193681789</v>
+        <v>0.9588640483173286</v>
       </c>
       <c r="D24">
-        <v>1.056971399780816</v>
+        <v>0.9758378263580582</v>
       </c>
       <c r="E24">
-        <v>1.054377228760683</v>
+        <v>0.9776682051797778</v>
       </c>
       <c r="F24">
-        <v>1.065363091697928</v>
+        <v>0.9814264806900445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.052930897879111</v>
+        <v>0.9880430141164102</v>
       </c>
       <c r="K24">
-        <v>1.06026987334938</v>
+        <v>0.990302972755543</v>
       </c>
       <c r="L24">
-        <v>1.057684388226073</v>
+        <v>0.9920991801134255</v>
       </c>
       <c r="M24">
-        <v>1.068633785679766</v>
+        <v>0.9957878128028451</v>
       </c>
       <c r="N24">
-        <v>1.054426180526962</v>
+        <v>0.9894461485265733</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049565606285848</v>
+        <v>0.9739469606458572</v>
       </c>
       <c r="D25">
-        <v>1.059621135994138</v>
+        <v>0.9897253463085205</v>
       </c>
       <c r="E25">
-        <v>1.056875470313182</v>
+        <v>0.9907917304032967</v>
       </c>
       <c r="F25">
-        <v>1.068116502766108</v>
+        <v>0.9957791715495987</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.055076786112191</v>
+        <v>0.999384089394922</v>
       </c>
       <c r="K25">
-        <v>1.062600637123988</v>
+        <v>1.002485284937401</v>
       </c>
       <c r="L25">
-        <v>1.059863205819264</v>
+        <v>1.003534694836609</v>
       </c>
       <c r="M25">
-        <v>1.071070817747026</v>
+        <v>1.008443365731413</v>
       </c>
       <c r="N25">
-        <v>1.056575116167469</v>
+        <v>1.00080332943282</v>
       </c>
     </row>
   </sheetData>
